--- a/Table/Table_xls/s商店商城商会表/NPCMT3买卖物品表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/NPCMT3买卖物品表.xlsx
@@ -3886,17 +3886,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3905,65 +3897,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3982,8 +3915,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3997,22 +4028,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4020,23 +4035,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4057,7 +4057,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4069,13 +4135,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4087,73 +4225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4165,73 +4237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4280,15 +4292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4299,21 +4302,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4342,157 +4330,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -4509,6 +4524,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4518,9 +4537,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="49" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -4570,6 +4592,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 15" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -4908,11 +4931,11 @@
   <dimension ref="A1:GZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="ED2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="ES16" sqref="ES16"/>
+      <selection pane="bottomRight" activeCell="AA13" sqref="AA13:BC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6696,7 +6719,7 @@
       <c r="EQ7" s="2">
         <v>4181</v>
       </c>
-      <c r="ER7" s="21">
+      <c r="ER7" s="24">
         <v>3142</v>
       </c>
       <c r="ES7" s="2">
@@ -6706,7 +6729,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6728,41 +6751,53 @@
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="22">
         <v>6600</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="22">
         <v>6601</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="22">
         <v>6602</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="22">
         <v>6603</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="22">
         <v>6604</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="22">
         <v>6605</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="22">
         <v>6606</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="22">
         <v>6607</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="22">
         <v>6608</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="22">
         <v>6609</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="22">
         <v>6610</v>
       </c>
+      <c r="T8" s="22">
+        <v>6611</v>
+      </c>
+      <c r="U8" s="22">
+        <v>6612</v>
+      </c>
+      <c r="V8" s="22">
+        <v>6613</v>
+      </c>
+      <c r="W8" s="22">
+        <v>6614</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6784,6 +6819,54 @@
       </c>
       <c r="H9" s="5">
         <v>0</v>
+      </c>
+      <c r="I9">
+        <v>6615</v>
+      </c>
+      <c r="J9">
+        <v>6616</v>
+      </c>
+      <c r="K9">
+        <v>6617</v>
+      </c>
+      <c r="L9">
+        <v>6618</v>
+      </c>
+      <c r="M9">
+        <v>6619</v>
+      </c>
+      <c r="N9">
+        <v>6620</v>
+      </c>
+      <c r="O9">
+        <v>6621</v>
+      </c>
+      <c r="P9">
+        <v>6622</v>
+      </c>
+      <c r="Q9">
+        <v>6623</v>
+      </c>
+      <c r="R9">
+        <v>6624</v>
+      </c>
+      <c r="S9">
+        <v>6625</v>
+      </c>
+      <c r="T9">
+        <v>6626</v>
+      </c>
+      <c r="U9">
+        <v>6627</v>
+      </c>
+      <c r="V9">
+        <v>6628</v>
+      </c>
+      <c r="W9">
+        <v>6629</v>
+      </c>
+      <c r="X9">
+        <v>6630</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6847,7 +6930,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:31">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6926,9 +7009,24 @@
       <c r="Z12">
         <v>90026</v>
       </c>
+      <c r="AA12" s="25">
+        <v>90027</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>90028</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>90029</v>
+      </c>
+      <c r="AD12" s="25">
+        <v>90030</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>90031</v>
+      </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:26">
-      <c r="A13" s="3">
+    <row r="13" s="2" customFormat="1" spans="1:55">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="16">
@@ -6943,204 +7041,291 @@
       <c r="E13" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="12">
         <v>2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="14">
         <v>0</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="14">
         <v>0</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="23">
         <v>4037</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="23">
         <v>4038</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="23">
         <v>4039</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="23">
         <v>4040</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="23">
         <v>4041</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="23">
         <v>4042</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="23">
         <v>4043</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="23">
         <v>4044</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="23">
         <v>4045</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="23">
         <v>4046</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="23">
         <v>4047</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="23">
         <v>4048</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="23">
         <v>4049</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="23">
         <v>4050</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W13" s="23">
         <v>4051</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="2">
         <v>4164</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="2">
         <v>4165</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="2">
         <v>4166</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>4184</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>4185</v>
+      </c>
+      <c r="AC13" s="26">
+        <v>4186</v>
+      </c>
+      <c r="AD13" s="26">
+        <v>4187</v>
+      </c>
+      <c r="AE13" s="26">
+        <v>4188</v>
+      </c>
+      <c r="AF13" s="26">
+        <v>4189</v>
+      </c>
+      <c r="AG13" s="26">
+        <v>4190</v>
+      </c>
+      <c r="AH13" s="26">
+        <v>4191</v>
+      </c>
+      <c r="AI13" s="26">
+        <v>4192</v>
+      </c>
+      <c r="AJ13" s="26">
+        <v>4193</v>
+      </c>
+      <c r="AK13" s="26">
+        <v>4194</v>
+      </c>
+      <c r="AL13" s="26">
+        <v>4195</v>
+      </c>
+      <c r="AM13" s="26">
+        <v>4196</v>
+      </c>
+      <c r="AN13" s="26">
+        <v>4197</v>
+      </c>
+      <c r="AO13" s="26">
+        <v>4198</v>
+      </c>
+      <c r="AP13" s="26">
+        <v>4199</v>
+      </c>
+      <c r="AQ13" s="26">
+        <v>4200</v>
+      </c>
+      <c r="AR13" s="26">
+        <v>4201</v>
+      </c>
+      <c r="AS13" s="26">
+        <v>4202</v>
+      </c>
+      <c r="AT13" s="26">
+        <v>4203</v>
+      </c>
+      <c r="AU13" s="26">
+        <v>4204</v>
+      </c>
+      <c r="AV13" s="26">
+        <v>4205</v>
+      </c>
+      <c r="AW13" s="26">
+        <v>4206</v>
+      </c>
+      <c r="AX13" s="26">
+        <v>4207</v>
+      </c>
+      <c r="AY13" s="26">
+        <v>4208</v>
+      </c>
+      <c r="AZ13" s="26">
+        <v>4209</v>
+      </c>
+      <c r="BA13" s="26">
+        <v>4210</v>
+      </c>
+      <c r="BB13" s="26">
+        <v>4211</v>
+      </c>
+      <c r="BC13" s="26">
+        <v>4212</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:45">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="18">
         <v>170108</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="19">
         <v>13</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="20">
         <v>2</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="21">
         <v>0</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="21">
         <v>0</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="24">
         <v>4000</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="24">
         <v>4001</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="24">
         <v>4002</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="24">
         <v>4003</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="24">
         <v>4004</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="24">
         <v>4005</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="24">
         <v>4006</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="24">
         <v>4007</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="24">
         <v>4008</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="24">
         <v>4009</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="24">
         <v>4010</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="24">
         <v>4011</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="24">
         <v>4012</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="24">
         <v>4013</v>
       </c>
-      <c r="W14" s="21">
+      <c r="W14" s="24">
         <v>4014</v>
       </c>
-      <c r="X14" s="21">
+      <c r="X14" s="24">
         <v>4015</v>
       </c>
-      <c r="Y14" s="21">
+      <c r="Y14" s="24">
         <v>4016</v>
       </c>
-      <c r="Z14" s="21">
+      <c r="Z14" s="24">
         <v>4017</v>
       </c>
-      <c r="AA14" s="21">
+      <c r="AA14" s="24">
         <v>4018</v>
       </c>
-      <c r="AB14" s="21">
+      <c r="AB14" s="24">
         <v>4019</v>
       </c>
-      <c r="AC14" s="21">
+      <c r="AC14" s="24">
         <v>4020</v>
       </c>
-      <c r="AD14" s="21">
+      <c r="AD14" s="24">
         <v>4021</v>
       </c>
-      <c r="AE14" s="21">
+      <c r="AE14" s="24">
         <v>4022</v>
       </c>
-      <c r="AF14" s="21">
+      <c r="AF14" s="24">
         <v>4023</v>
       </c>
-      <c r="AG14" s="21">
+      <c r="AG14" s="24">
         <v>4024</v>
       </c>
-      <c r="AH14" s="21">
+      <c r="AH14" s="24">
         <v>4025</v>
       </c>
-      <c r="AI14" s="21">
+      <c r="AI14" s="24">
         <v>4026</v>
       </c>
-      <c r="AJ14" s="21">
+      <c r="AJ14" s="24">
         <v>4027</v>
       </c>
-      <c r="AK14" s="21">
+      <c r="AK14" s="24">
         <v>4028</v>
       </c>
-      <c r="AL14" s="21">
+      <c r="AL14" s="24">
         <v>4029</v>
       </c>
-      <c r="AM14" s="21">
+      <c r="AM14" s="24">
         <v>4030</v>
       </c>
-      <c r="AN14" s="21">
+      <c r="AN14" s="24">
         <v>4031</v>
       </c>
-      <c r="AO14" s="21">
+      <c r="AO14" s="24">
         <v>4032</v>
       </c>
-      <c r="AP14" s="21">
+      <c r="AP14" s="24">
         <v>4033</v>
       </c>
-      <c r="AQ14" s="21">
+      <c r="AQ14" s="24">
         <v>4034</v>
       </c>
-      <c r="AR14" s="21">
+      <c r="AR14" s="24">
         <v>4035</v>
       </c>
-      <c r="AS14" s="21">
+      <c r="AS14" s="24">
         <v>4036</v>
       </c>
     </row>
@@ -7148,133 +7333,133 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="18">
         <v>170109</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="19">
         <v>14</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="20">
         <v>2</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="21">
         <v>0</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="21">
         <v>0</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="24">
         <v>4052</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="24">
         <v>4053</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="24">
         <v>4054</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="24">
         <v>4055</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="24">
         <v>4056</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="24">
         <v>4057</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="24">
         <v>4058</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="24">
         <v>4059</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="24">
         <v>4060</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="24">
         <v>4079</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="24">
         <v>4080</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="24">
         <v>4081</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="24">
         <v>4082</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="24">
         <v>4083</v>
       </c>
-      <c r="W15" s="21">
+      <c r="W15" s="24">
         <v>4084</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="24">
         <v>4085</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="24">
         <v>4086</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="24">
         <v>4087</v>
       </c>
-      <c r="AA15" s="21">
+      <c r="AA15" s="24">
         <v>4088</v>
       </c>
-      <c r="AB15" s="21">
+      <c r="AB15" s="24">
         <v>4089</v>
       </c>
-      <c r="AC15" s="21">
+      <c r="AC15" s="24">
         <v>4090</v>
       </c>
-      <c r="AD15" s="21">
+      <c r="AD15" s="24">
         <v>4091</v>
       </c>
-      <c r="AE15" s="21">
+      <c r="AE15" s="24">
         <v>4092</v>
       </c>
-      <c r="AF15" s="21">
+      <c r="AF15" s="24">
         <v>4093</v>
       </c>
-      <c r="AG15" s="21">
+      <c r="AG15" s="24">
         <v>4094</v>
       </c>
-      <c r="AH15" s="21">
+      <c r="AH15" s="24">
         <v>4095</v>
       </c>
-      <c r="AI15" s="21">
+      <c r="AI15" s="24">
         <v>4096</v>
       </c>
-      <c r="AJ15" s="21">
+      <c r="AJ15" s="24">
         <v>4097</v>
       </c>
-      <c r="AK15" s="21">
+      <c r="AK15" s="24">
         <v>4098</v>
       </c>
-      <c r="AL15" s="21">
+      <c r="AL15" s="24">
         <v>4099</v>
       </c>
-      <c r="AM15" s="21">
+      <c r="AM15" s="24">
         <v>4100</v>
       </c>
-      <c r="AN15" s="21">
+      <c r="AN15" s="24">
         <v>4101</v>
       </c>
-      <c r="AO15" s="21">
+      <c r="AO15" s="24">
         <v>4102</v>
       </c>
-      <c r="AP15" s="21">
+      <c r="AP15" s="24">
         <v>4103</v>
       </c>
-      <c r="AQ15" s="21">
+      <c r="AQ15" s="24">
         <v>4104</v>
       </c>
-      <c r="AR15" s="21">
+      <c r="AR15" s="24">
         <v>4105</v>
       </c>
     </row>
@@ -7282,10 +7467,10 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="18">
         <v>170110</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="19">
         <v>15</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -7356,10 +7541,10 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="18">
         <v>170112</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="19">
         <v>16</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -7484,7 +7669,7 @@
       <c r="B18">
         <v>170118</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="19">
         <v>17</v>
       </c>
       <c r="D18" s="15" t="s">

--- a/Table/Table_xls/s商店商城商会表/NPCMT3买卖物品表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/NPCMT3买卖物品表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3834,10 +3834,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3879,10 +3879,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3893,7 +3923,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3915,23 +3961,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3953,7 +3984,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3967,8 +4005,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3982,24 +4021,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4012,25 +4035,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4069,19 +4075,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4105,7 +4117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4117,19 +4129,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4141,7 +4153,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4153,97 +4231,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4254,6 +4260,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4274,8 +4319,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4283,11 +4330,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4310,47 +4355,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4359,155 +4365,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -4534,7 +4540,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -4928,14 +4937,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:GZ18"/>
+  <dimension ref="A1:GZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA13" sqref="AA13:BC13"/>
+      <selection pane="bottomRight" activeCell="BJ19" sqref="BJ19:BK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6279,7 +6288,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:150">
+    <row r="7" s="2" customFormat="1" spans="1:161">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6719,7 +6728,7 @@
       <c r="EQ7" s="2">
         <v>4181</v>
       </c>
-      <c r="ER7" s="24">
+      <c r="ER7" s="25">
         <v>3142</v>
       </c>
       <c r="ES7" s="2">
@@ -6727,6 +6736,39 @@
       </c>
       <c r="ET7" s="2">
         <v>4183</v>
+      </c>
+      <c r="EU7" s="24">
+        <v>3143</v>
+      </c>
+      <c r="EV7" s="24">
+        <v>3144</v>
+      </c>
+      <c r="EW7" s="24">
+        <v>3145</v>
+      </c>
+      <c r="EX7" s="24">
+        <v>3146</v>
+      </c>
+      <c r="EY7" s="24">
+        <v>3147</v>
+      </c>
+      <c r="EZ7" s="24">
+        <v>3148</v>
+      </c>
+      <c r="FA7" s="24">
+        <v>3149</v>
+      </c>
+      <c r="FB7" s="24">
+        <v>3150</v>
+      </c>
+      <c r="FC7" s="24">
+        <v>3151</v>
+      </c>
+      <c r="FD7" s="24">
+        <v>3152</v>
+      </c>
+      <c r="FE7" s="24">
+        <v>3153</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -6751,53 +6793,53 @@
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="23">
         <v>6600</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="23">
         <v>6601</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="23">
         <v>6602</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="23">
         <v>6603</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="23">
         <v>6604</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="23">
         <v>6605</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="23">
         <v>6606</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="23">
         <v>6607</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="23">
         <v>6608</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="23">
         <v>6609</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="23">
         <v>6610</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="23">
         <v>6611</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="23">
         <v>6612</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="23">
         <v>6613</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="23">
         <v>6614</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6820,53 +6862,8 @@
       <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="23">
         <v>6615</v>
-      </c>
-      <c r="J9">
-        <v>6616</v>
-      </c>
-      <c r="K9">
-        <v>6617</v>
-      </c>
-      <c r="L9">
-        <v>6618</v>
-      </c>
-      <c r="M9">
-        <v>6619</v>
-      </c>
-      <c r="N9">
-        <v>6620</v>
-      </c>
-      <c r="O9">
-        <v>6621</v>
-      </c>
-      <c r="P9">
-        <v>6622</v>
-      </c>
-      <c r="Q9">
-        <v>6623</v>
-      </c>
-      <c r="R9">
-        <v>6624</v>
-      </c>
-      <c r="S9">
-        <v>6625</v>
-      </c>
-      <c r="T9">
-        <v>6626</v>
-      </c>
-      <c r="U9">
-        <v>6627</v>
-      </c>
-      <c r="V9">
-        <v>6628</v>
-      </c>
-      <c r="W9">
-        <v>6629</v>
-      </c>
-      <c r="X9">
-        <v>6630</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7009,19 +7006,19 @@
       <c r="Z12">
         <v>90026</v>
       </c>
-      <c r="AA12" s="25">
+      <c r="AA12" s="26">
         <v>90027</v>
       </c>
-      <c r="AB12" s="25">
+      <c r="AB12" s="26">
         <v>90028</v>
       </c>
-      <c r="AC12" s="25">
+      <c r="AC12" s="26">
         <v>90029</v>
       </c>
-      <c r="AD12" s="25">
+      <c r="AD12" s="26">
         <v>90030</v>
       </c>
-      <c r="AE12" s="25">
+      <c r="AE12" s="26">
         <v>90031</v>
       </c>
     </row>
@@ -7050,49 +7047,49 @@
       <c r="H13" s="14">
         <v>0</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="24">
         <v>4037</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="24">
         <v>4038</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="24">
         <v>4039</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="24">
         <v>4040</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="24">
         <v>4041</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="24">
         <v>4042</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="24">
         <v>4043</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="24">
         <v>4044</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="24">
         <v>4045</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="24">
         <v>4046</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="24">
         <v>4047</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="24">
         <v>4048</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="24">
         <v>4049</v>
       </c>
-      <c r="V13" s="23">
+      <c r="V13" s="24">
         <v>4050</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="24">
         <v>4051</v>
       </c>
       <c r="X13" s="2">
@@ -7104,91 +7101,91 @@
       <c r="Z13" s="2">
         <v>4166</v>
       </c>
-      <c r="AA13" s="26">
+      <c r="AA13" s="27">
         <v>4184</v>
       </c>
-      <c r="AB13" s="26">
+      <c r="AB13" s="27">
         <v>4185</v>
       </c>
-      <c r="AC13" s="26">
+      <c r="AC13" s="27">
         <v>4186</v>
       </c>
-      <c r="AD13" s="26">
+      <c r="AD13" s="27">
         <v>4187</v>
       </c>
-      <c r="AE13" s="26">
+      <c r="AE13" s="27">
         <v>4188</v>
       </c>
-      <c r="AF13" s="26">
+      <c r="AF13" s="27">
         <v>4189</v>
       </c>
-      <c r="AG13" s="26">
+      <c r="AG13" s="27">
         <v>4190</v>
       </c>
-      <c r="AH13" s="26">
+      <c r="AH13" s="27">
         <v>4191</v>
       </c>
-      <c r="AI13" s="26">
+      <c r="AI13" s="27">
         <v>4192</v>
       </c>
-      <c r="AJ13" s="26">
+      <c r="AJ13" s="27">
         <v>4193</v>
       </c>
-      <c r="AK13" s="26">
+      <c r="AK13" s="27">
         <v>4194</v>
       </c>
-      <c r="AL13" s="26">
+      <c r="AL13" s="27">
         <v>4195</v>
       </c>
-      <c r="AM13" s="26">
+      <c r="AM13" s="27">
         <v>4196</v>
       </c>
-      <c r="AN13" s="26">
+      <c r="AN13" s="27">
         <v>4197</v>
       </c>
-      <c r="AO13" s="26">
+      <c r="AO13" s="27">
         <v>4198</v>
       </c>
-      <c r="AP13" s="26">
+      <c r="AP13" s="27">
         <v>4199</v>
       </c>
-      <c r="AQ13" s="26">
+      <c r="AQ13" s="27">
         <v>4200</v>
       </c>
-      <c r="AR13" s="26">
+      <c r="AR13" s="27">
         <v>4201</v>
       </c>
-      <c r="AS13" s="26">
+      <c r="AS13" s="27">
         <v>4202</v>
       </c>
-      <c r="AT13" s="26">
+      <c r="AT13" s="27">
         <v>4203</v>
       </c>
-      <c r="AU13" s="26">
+      <c r="AU13" s="27">
         <v>4204</v>
       </c>
-      <c r="AV13" s="26">
+      <c r="AV13" s="27">
         <v>4205</v>
       </c>
-      <c r="AW13" s="26">
+      <c r="AW13" s="27">
         <v>4206</v>
       </c>
-      <c r="AX13" s="26">
+      <c r="AX13" s="27">
         <v>4207</v>
       </c>
-      <c r="AY13" s="26">
+      <c r="AY13" s="27">
         <v>4208</v>
       </c>
-      <c r="AZ13" s="26">
+      <c r="AZ13" s="27">
         <v>4209</v>
       </c>
-      <c r="BA13" s="26">
+      <c r="BA13" s="27">
         <v>4210</v>
       </c>
-      <c r="BB13" s="26">
+      <c r="BB13" s="27">
         <v>4211</v>
       </c>
-      <c r="BC13" s="26">
+      <c r="BC13" s="27">
         <v>4212</v>
       </c>
     </row>
@@ -7217,115 +7214,115 @@
       <c r="H14" s="21">
         <v>0</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="25">
         <v>4000</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="25">
         <v>4001</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="25">
         <v>4002</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="25">
         <v>4003</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="25">
         <v>4004</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="25">
         <v>4005</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="25">
         <v>4006</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="25">
         <v>4007</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="25">
         <v>4008</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="25">
         <v>4009</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="25">
         <v>4010</v>
       </c>
-      <c r="T14" s="24">
+      <c r="T14" s="25">
         <v>4011</v>
       </c>
-      <c r="U14" s="24">
+      <c r="U14" s="25">
         <v>4012</v>
       </c>
-      <c r="V14" s="24">
+      <c r="V14" s="25">
         <v>4013</v>
       </c>
-      <c r="W14" s="24">
+      <c r="W14" s="25">
         <v>4014</v>
       </c>
-      <c r="X14" s="24">
+      <c r="X14" s="25">
         <v>4015</v>
       </c>
-      <c r="Y14" s="24">
+      <c r="Y14" s="25">
         <v>4016</v>
       </c>
-      <c r="Z14" s="24">
+      <c r="Z14" s="25">
         <v>4017</v>
       </c>
-      <c r="AA14" s="24">
+      <c r="AA14" s="25">
         <v>4018</v>
       </c>
-      <c r="AB14" s="24">
+      <c r="AB14" s="25">
         <v>4019</v>
       </c>
-      <c r="AC14" s="24">
+      <c r="AC14" s="25">
         <v>4020</v>
       </c>
-      <c r="AD14" s="24">
+      <c r="AD14" s="25">
         <v>4021</v>
       </c>
-      <c r="AE14" s="24">
+      <c r="AE14" s="25">
         <v>4022</v>
       </c>
-      <c r="AF14" s="24">
+      <c r="AF14" s="25">
         <v>4023</v>
       </c>
-      <c r="AG14" s="24">
+      <c r="AG14" s="25">
         <v>4024</v>
       </c>
-      <c r="AH14" s="24">
+      <c r="AH14" s="25">
         <v>4025</v>
       </c>
-      <c r="AI14" s="24">
+      <c r="AI14" s="25">
         <v>4026</v>
       </c>
-      <c r="AJ14" s="24">
+      <c r="AJ14" s="25">
         <v>4027</v>
       </c>
-      <c r="AK14" s="24">
+      <c r="AK14" s="25">
         <v>4028</v>
       </c>
-      <c r="AL14" s="24">
+      <c r="AL14" s="25">
         <v>4029</v>
       </c>
-      <c r="AM14" s="24">
+      <c r="AM14" s="25">
         <v>4030</v>
       </c>
-      <c r="AN14" s="24">
+      <c r="AN14" s="25">
         <v>4031</v>
       </c>
-      <c r="AO14" s="24">
+      <c r="AO14" s="25">
         <v>4032</v>
       </c>
-      <c r="AP14" s="24">
+      <c r="AP14" s="25">
         <v>4033</v>
       </c>
-      <c r="AQ14" s="24">
+      <c r="AQ14" s="25">
         <v>4034</v>
       </c>
-      <c r="AR14" s="24">
+      <c r="AR14" s="25">
         <v>4035</v>
       </c>
-      <c r="AS14" s="24">
+      <c r="AS14" s="25">
         <v>4036</v>
       </c>
     </row>
@@ -7354,112 +7351,112 @@
       <c r="H15" s="21">
         <v>0</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="25">
         <v>4052</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="25">
         <v>4053</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="25">
         <v>4054</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="25">
         <v>4055</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="25">
         <v>4056</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="25">
         <v>4057</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="25">
         <v>4058</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="25">
         <v>4059</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="25">
         <v>4060</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="25">
         <v>4079</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="25">
         <v>4080</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T15" s="25">
         <v>4081</v>
       </c>
-      <c r="U15" s="24">
+      <c r="U15" s="25">
         <v>4082</v>
       </c>
-      <c r="V15" s="24">
+      <c r="V15" s="25">
         <v>4083</v>
       </c>
-      <c r="W15" s="24">
+      <c r="W15" s="25">
         <v>4084</v>
       </c>
-      <c r="X15" s="24">
+      <c r="X15" s="25">
         <v>4085</v>
       </c>
-      <c r="Y15" s="24">
+      <c r="Y15" s="25">
         <v>4086</v>
       </c>
-      <c r="Z15" s="24">
+      <c r="Z15" s="25">
         <v>4087</v>
       </c>
-      <c r="AA15" s="24">
+      <c r="AA15" s="25">
         <v>4088</v>
       </c>
-      <c r="AB15" s="24">
+      <c r="AB15" s="25">
         <v>4089</v>
       </c>
-      <c r="AC15" s="24">
+      <c r="AC15" s="25">
         <v>4090</v>
       </c>
-      <c r="AD15" s="24">
+      <c r="AD15" s="25">
         <v>4091</v>
       </c>
-      <c r="AE15" s="24">
+      <c r="AE15" s="25">
         <v>4092</v>
       </c>
-      <c r="AF15" s="24">
+      <c r="AF15" s="25">
         <v>4093</v>
       </c>
-      <c r="AG15" s="24">
+      <c r="AG15" s="25">
         <v>4094</v>
       </c>
-      <c r="AH15" s="24">
+      <c r="AH15" s="25">
         <v>4095</v>
       </c>
-      <c r="AI15" s="24">
+      <c r="AI15" s="25">
         <v>4096</v>
       </c>
-      <c r="AJ15" s="24">
+      <c r="AJ15" s="25">
         <v>4097</v>
       </c>
-      <c r="AK15" s="24">
+      <c r="AK15" s="25">
         <v>4098</v>
       </c>
-      <c r="AL15" s="24">
+      <c r="AL15" s="25">
         <v>4099</v>
       </c>
-      <c r="AM15" s="24">
+      <c r="AM15" s="25">
         <v>4100</v>
       </c>
-      <c r="AN15" s="24">
+      <c r="AN15" s="25">
         <v>4101</v>
       </c>
-      <c r="AO15" s="24">
+      <c r="AO15" s="25">
         <v>4102</v>
       </c>
-      <c r="AP15" s="24">
+      <c r="AP15" s="25">
         <v>4103</v>
       </c>
-      <c r="AQ15" s="24">
+      <c r="AQ15" s="25">
         <v>4104</v>
       </c>
-      <c r="AR15" s="24">
+      <c r="AR15" s="25">
         <v>4105</v>
       </c>
     </row>
@@ -7974,6 +7971,197 @@
       </c>
       <c r="CZ18">
         <v>8096</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" spans="1:63">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22">
+        <v>170129</v>
+      </c>
+      <c r="C19" s="19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <v>8097</v>
+      </c>
+      <c r="J19" s="24">
+        <v>8098</v>
+      </c>
+      <c r="K19" s="24">
+        <v>8099</v>
+      </c>
+      <c r="L19" s="24">
+        <v>8100</v>
+      </c>
+      <c r="M19" s="24">
+        <v>8101</v>
+      </c>
+      <c r="N19" s="24">
+        <v>8102</v>
+      </c>
+      <c r="O19" s="24">
+        <v>8103</v>
+      </c>
+      <c r="P19" s="24">
+        <v>8104</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>8105</v>
+      </c>
+      <c r="R19" s="24">
+        <v>8106</v>
+      </c>
+      <c r="S19" s="24">
+        <v>8107</v>
+      </c>
+      <c r="T19" s="24">
+        <v>8108</v>
+      </c>
+      <c r="U19" s="24">
+        <v>8109</v>
+      </c>
+      <c r="V19" s="24">
+        <v>8110</v>
+      </c>
+      <c r="W19" s="24">
+        <v>8111</v>
+      </c>
+      <c r="X19" s="24">
+        <v>8112</v>
+      </c>
+      <c r="Y19" s="24">
+        <v>8113</v>
+      </c>
+      <c r="Z19" s="24">
+        <v>8114</v>
+      </c>
+      <c r="AA19" s="24">
+        <v>8115</v>
+      </c>
+      <c r="AB19" s="24">
+        <v>8116</v>
+      </c>
+      <c r="AC19" s="24">
+        <v>8117</v>
+      </c>
+      <c r="AD19" s="24">
+        <v>8118</v>
+      </c>
+      <c r="AE19" s="24">
+        <v>8119</v>
+      </c>
+      <c r="AF19" s="24">
+        <v>8120</v>
+      </c>
+      <c r="AG19" s="24">
+        <v>8121</v>
+      </c>
+      <c r="AH19" s="24">
+        <v>8122</v>
+      </c>
+      <c r="AI19" s="24">
+        <v>8123</v>
+      </c>
+      <c r="AJ19" s="24">
+        <v>8124</v>
+      </c>
+      <c r="AK19" s="24">
+        <v>8125</v>
+      </c>
+      <c r="AL19" s="24">
+        <v>8126</v>
+      </c>
+      <c r="AM19" s="24">
+        <v>8127</v>
+      </c>
+      <c r="AN19" s="24">
+        <v>8128</v>
+      </c>
+      <c r="AO19" s="24">
+        <v>8129</v>
+      </c>
+      <c r="AP19" s="24">
+        <v>8130</v>
+      </c>
+      <c r="AQ19" s="24">
+        <v>8131</v>
+      </c>
+      <c r="AR19" s="24">
+        <v>8132</v>
+      </c>
+      <c r="AS19" s="24">
+        <v>8133</v>
+      </c>
+      <c r="AT19" s="24">
+        <v>8134</v>
+      </c>
+      <c r="AU19" s="24">
+        <v>8135</v>
+      </c>
+      <c r="AV19" s="24">
+        <v>8136</v>
+      </c>
+      <c r="AW19" s="24">
+        <v>8137</v>
+      </c>
+      <c r="AX19" s="24">
+        <v>8138</v>
+      </c>
+      <c r="AY19" s="24">
+        <v>8139</v>
+      </c>
+      <c r="AZ19" s="24">
+        <v>8140</v>
+      </c>
+      <c r="BA19" s="24">
+        <v>8141</v>
+      </c>
+      <c r="BB19" s="24">
+        <v>8142</v>
+      </c>
+      <c r="BC19" s="24">
+        <v>8143</v>
+      </c>
+      <c r="BD19" s="24">
+        <v>8144</v>
+      </c>
+      <c r="BE19" s="24">
+        <v>8145</v>
+      </c>
+      <c r="BF19" s="24">
+        <v>8146</v>
+      </c>
+      <c r="BG19" s="24">
+        <v>8147</v>
+      </c>
+      <c r="BH19" s="24">
+        <v>8148</v>
+      </c>
+      <c r="BI19" s="24">
+        <v>8149</v>
+      </c>
+      <c r="BJ19" s="24">
+        <v>8149</v>
+      </c>
+      <c r="BK19" s="24">
+        <v>8150</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Table_xls/s商店商城商会表/NPCMT3买卖物品表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/NPCMT3买卖物品表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 不能出现重复的ID
 不通过NPC的商店类型填写≥1000000</t>
         </r>
@@ -39,11 +38,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 1，银币
 2，金币
 3，符石
@@ -62,11 +60,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 0,不波动
 1，商会波动
 2，摆摊波动</t>
@@ -78,11 +75,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 单位秒</t>
         </r>
       </text>
@@ -92,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="234">
   <si>
     <t>序列</t>
   </si>
@@ -3825,6 +3821,9 @@
   </si>
   <si>
     <t>打造商城</t>
+  </si>
+  <si>
+    <t>钱庄</t>
   </si>
 </sst>
 </file>
@@ -3837,7 +3836,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3891,6 +3890,117 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3907,34 +4017,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3946,28 +4033,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3976,70 +4041,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -4075,7 +4079,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4087,19 +4145,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4111,7 +4187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4123,31 +4199,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4159,43 +4229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4207,13 +4241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4225,36 +4253,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4263,11 +4267,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4288,6 +4313,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4302,17 +4342,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4327,193 +4379,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -4543,11 +4562,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="49" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -4604,6 +4629,11 @@
     <cellStyle name="常规 15" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4930,31 +4960,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:GZ19"/>
+  <dimension ref="A1:GZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BJ19" sqref="BJ19:BK19"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20:S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="9.14285714285714" style="4"/>
-    <col min="4" max="4" width="9.71428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.1428571428571" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.5714285714286" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.2857142857143" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.14285714285714" style="5"/>
+    <col min="3" max="3" width="9.13888888888889" style="4"/>
+    <col min="4" max="4" width="9.71296296296296" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.1388888888889" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.5740740740741" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.287037037037" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.13888888888889" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:208">
@@ -6288,7 +6317,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:161">
+    <row r="7" s="2" customFormat="1" spans="1:165">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6728,7 +6757,7 @@
       <c r="EQ7" s="2">
         <v>4181</v>
       </c>
-      <c r="ER7" s="25">
+      <c r="ER7" s="26">
         <v>3142</v>
       </c>
       <c r="ES7" s="2">
@@ -6737,38 +6766,50 @@
       <c r="ET7" s="2">
         <v>4183</v>
       </c>
-      <c r="EU7" s="24">
+      <c r="EU7" s="25">
         <v>3143</v>
       </c>
-      <c r="EV7" s="24">
+      <c r="EV7" s="25">
         <v>3144</v>
       </c>
-      <c r="EW7" s="24">
+      <c r="EW7" s="25">
         <v>3145</v>
       </c>
-      <c r="EX7" s="24">
+      <c r="EX7" s="25">
         <v>3146</v>
       </c>
-      <c r="EY7" s="24">
+      <c r="EY7" s="25">
         <v>3147</v>
       </c>
-      <c r="EZ7" s="24">
+      <c r="EZ7" s="25">
         <v>3148</v>
       </c>
-      <c r="FA7" s="24">
+      <c r="FA7" s="25">
         <v>3149</v>
       </c>
-      <c r="FB7" s="24">
+      <c r="FB7" s="25">
         <v>3150</v>
       </c>
-      <c r="FC7" s="24">
+      <c r="FC7" s="25">
         <v>3151</v>
       </c>
-      <c r="FD7" s="24">
+      <c r="FD7" s="25">
         <v>3152</v>
       </c>
-      <c r="FE7" s="24">
+      <c r="FE7" s="25">
         <v>3153</v>
+      </c>
+      <c r="FF7" s="25">
+        <v>3154</v>
+      </c>
+      <c r="FG7" s="25">
+        <v>3155</v>
+      </c>
+      <c r="FH7" s="25">
+        <v>3156</v>
+      </c>
+      <c r="FI7" s="25">
+        <v>3157</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -6793,49 +6834,49 @@
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="24">
         <v>6600</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="24">
         <v>6601</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="24">
         <v>6602</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="24">
         <v>6603</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="24">
         <v>6604</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="24">
         <v>6605</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="24">
         <v>6606</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="24">
         <v>6607</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="24">
         <v>6608</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="24">
         <v>6609</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="24">
         <v>6610</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="24">
         <v>6611</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="24">
         <v>6612</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="24">
         <v>6613</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="24">
         <v>6614</v>
       </c>
     </row>
@@ -6862,7 +6903,7 @@
       <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="24">
         <v>6615</v>
       </c>
     </row>
@@ -7006,19 +7047,19 @@
       <c r="Z12">
         <v>90026</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AA12" s="28">
         <v>90027</v>
       </c>
-      <c r="AB12" s="26">
+      <c r="AB12" s="28">
         <v>90028</v>
       </c>
-      <c r="AC12" s="26">
+      <c r="AC12" s="28">
         <v>90029</v>
       </c>
-      <c r="AD12" s="26">
+      <c r="AD12" s="28">
         <v>90030</v>
       </c>
-      <c r="AE12" s="26">
+      <c r="AE12" s="28">
         <v>90031</v>
       </c>
     </row>
@@ -7047,49 +7088,49 @@
       <c r="H13" s="14">
         <v>0</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="25">
         <v>4037</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="25">
         <v>4038</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="25">
         <v>4039</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="25">
         <v>4040</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="25">
         <v>4041</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="25">
         <v>4042</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="25">
         <v>4043</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="25">
         <v>4044</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="25">
         <v>4045</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="25">
         <v>4046</v>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="25">
         <v>4047</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="25">
         <v>4048</v>
       </c>
-      <c r="U13" s="24">
+      <c r="U13" s="25">
         <v>4049</v>
       </c>
-      <c r="V13" s="24">
+      <c r="V13" s="25">
         <v>4050</v>
       </c>
-      <c r="W13" s="24">
+      <c r="W13" s="25">
         <v>4051</v>
       </c>
       <c r="X13" s="2">
@@ -7101,91 +7142,91 @@
       <c r="Z13" s="2">
         <v>4166</v>
       </c>
-      <c r="AA13" s="27">
+      <c r="AA13" s="29">
         <v>4184</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AB13" s="29">
         <v>4185</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AC13" s="29">
         <v>4186</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AD13" s="29">
         <v>4187</v>
       </c>
-      <c r="AE13" s="27">
+      <c r="AE13" s="29">
         <v>4188</v>
       </c>
-      <c r="AF13" s="27">
+      <c r="AF13" s="29">
         <v>4189</v>
       </c>
-      <c r="AG13" s="27">
+      <c r="AG13" s="29">
         <v>4190</v>
       </c>
-      <c r="AH13" s="27">
+      <c r="AH13" s="29">
         <v>4191</v>
       </c>
-      <c r="AI13" s="27">
+      <c r="AI13" s="29">
         <v>4192</v>
       </c>
-      <c r="AJ13" s="27">
+      <c r="AJ13" s="29">
         <v>4193</v>
       </c>
-      <c r="AK13" s="27">
+      <c r="AK13" s="29">
         <v>4194</v>
       </c>
-      <c r="AL13" s="27">
+      <c r="AL13" s="29">
         <v>4195</v>
       </c>
-      <c r="AM13" s="27">
+      <c r="AM13" s="29">
         <v>4196</v>
       </c>
-      <c r="AN13" s="27">
+      <c r="AN13" s="29">
         <v>4197</v>
       </c>
-      <c r="AO13" s="27">
+      <c r="AO13" s="29">
         <v>4198</v>
       </c>
-      <c r="AP13" s="27">
+      <c r="AP13" s="29">
         <v>4199</v>
       </c>
-      <c r="AQ13" s="27">
+      <c r="AQ13" s="29">
         <v>4200</v>
       </c>
-      <c r="AR13" s="27">
+      <c r="AR13" s="29">
         <v>4201</v>
       </c>
-      <c r="AS13" s="27">
+      <c r="AS13" s="29">
         <v>4202</v>
       </c>
-      <c r="AT13" s="27">
+      <c r="AT13" s="29">
         <v>4203</v>
       </c>
-      <c r="AU13" s="27">
+      <c r="AU13" s="29">
         <v>4204</v>
       </c>
-      <c r="AV13" s="27">
+      <c r="AV13" s="29">
         <v>4205</v>
       </c>
-      <c r="AW13" s="27">
+      <c r="AW13" s="29">
         <v>4206</v>
       </c>
-      <c r="AX13" s="27">
+      <c r="AX13" s="29">
         <v>4207</v>
       </c>
-      <c r="AY13" s="27">
+      <c r="AY13" s="29">
         <v>4208</v>
       </c>
-      <c r="AZ13" s="27">
+      <c r="AZ13" s="29">
         <v>4209</v>
       </c>
-      <c r="BA13" s="27">
+      <c r="BA13" s="29">
         <v>4210</v>
       </c>
-      <c r="BB13" s="27">
+      <c r="BB13" s="29">
         <v>4211</v>
       </c>
-      <c r="BC13" s="27">
+      <c r="BC13" s="29">
         <v>4212</v>
       </c>
     </row>
@@ -7214,115 +7255,115 @@
       <c r="H14" s="21">
         <v>0</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="26">
         <v>4000</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="26">
         <v>4001</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="26">
         <v>4002</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="26">
         <v>4003</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="26">
         <v>4004</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="26">
         <v>4005</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="26">
         <v>4006</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="26">
         <v>4007</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="26">
         <v>4008</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="26">
         <v>4009</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S14" s="26">
         <v>4010</v>
       </c>
-      <c r="T14" s="25">
+      <c r="T14" s="26">
         <v>4011</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="26">
         <v>4012</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="26">
         <v>4013</v>
       </c>
-      <c r="W14" s="25">
+      <c r="W14" s="26">
         <v>4014</v>
       </c>
-      <c r="X14" s="25">
+      <c r="X14" s="26">
         <v>4015</v>
       </c>
-      <c r="Y14" s="25">
+      <c r="Y14" s="26">
         <v>4016</v>
       </c>
-      <c r="Z14" s="25">
+      <c r="Z14" s="26">
         <v>4017</v>
       </c>
-      <c r="AA14" s="25">
+      <c r="AA14" s="26">
         <v>4018</v>
       </c>
-      <c r="AB14" s="25">
+      <c r="AB14" s="26">
         <v>4019</v>
       </c>
-      <c r="AC14" s="25">
+      <c r="AC14" s="26">
         <v>4020</v>
       </c>
-      <c r="AD14" s="25">
+      <c r="AD14" s="26">
         <v>4021</v>
       </c>
-      <c r="AE14" s="25">
+      <c r="AE14" s="26">
         <v>4022</v>
       </c>
-      <c r="AF14" s="25">
+      <c r="AF14" s="26">
         <v>4023</v>
       </c>
-      <c r="AG14" s="25">
+      <c r="AG14" s="26">
         <v>4024</v>
       </c>
-      <c r="AH14" s="25">
+      <c r="AH14" s="26">
         <v>4025</v>
       </c>
-      <c r="AI14" s="25">
+      <c r="AI14" s="26">
         <v>4026</v>
       </c>
-      <c r="AJ14" s="25">
+      <c r="AJ14" s="26">
         <v>4027</v>
       </c>
-      <c r="AK14" s="25">
+      <c r="AK14" s="26">
         <v>4028</v>
       </c>
-      <c r="AL14" s="25">
+      <c r="AL14" s="26">
         <v>4029</v>
       </c>
-      <c r="AM14" s="25">
+      <c r="AM14" s="26">
         <v>4030</v>
       </c>
-      <c r="AN14" s="25">
+      <c r="AN14" s="26">
         <v>4031</v>
       </c>
-      <c r="AO14" s="25">
+      <c r="AO14" s="26">
         <v>4032</v>
       </c>
-      <c r="AP14" s="25">
+      <c r="AP14" s="26">
         <v>4033</v>
       </c>
-      <c r="AQ14" s="25">
+      <c r="AQ14" s="26">
         <v>4034</v>
       </c>
-      <c r="AR14" s="25">
+      <c r="AR14" s="26">
         <v>4035</v>
       </c>
-      <c r="AS14" s="25">
+      <c r="AS14" s="26">
         <v>4036</v>
       </c>
     </row>
@@ -7351,112 +7392,112 @@
       <c r="H15" s="21">
         <v>0</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="26">
         <v>4052</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="26">
         <v>4053</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="26">
         <v>4054</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="26">
         <v>4055</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="26">
         <v>4056</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="26">
         <v>4057</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="26">
         <v>4058</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="26">
         <v>4059</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="26">
         <v>4060</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="26">
         <v>4079</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S15" s="26">
         <v>4080</v>
       </c>
-      <c r="T15" s="25">
+      <c r="T15" s="26">
         <v>4081</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15" s="26">
         <v>4082</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="26">
         <v>4083</v>
       </c>
-      <c r="W15" s="25">
+      <c r="W15" s="26">
         <v>4084</v>
       </c>
-      <c r="X15" s="25">
+      <c r="X15" s="26">
         <v>4085</v>
       </c>
-      <c r="Y15" s="25">
+      <c r="Y15" s="26">
         <v>4086</v>
       </c>
-      <c r="Z15" s="25">
+      <c r="Z15" s="26">
         <v>4087</v>
       </c>
-      <c r="AA15" s="25">
+      <c r="AA15" s="26">
         <v>4088</v>
       </c>
-      <c r="AB15" s="25">
+      <c r="AB15" s="26">
         <v>4089</v>
       </c>
-      <c r="AC15" s="25">
+      <c r="AC15" s="26">
         <v>4090</v>
       </c>
-      <c r="AD15" s="25">
+      <c r="AD15" s="26">
         <v>4091</v>
       </c>
-      <c r="AE15" s="25">
+      <c r="AE15" s="26">
         <v>4092</v>
       </c>
-      <c r="AF15" s="25">
+      <c r="AF15" s="26">
         <v>4093</v>
       </c>
-      <c r="AG15" s="25">
+      <c r="AG15" s="26">
         <v>4094</v>
       </c>
-      <c r="AH15" s="25">
+      <c r="AH15" s="26">
         <v>4095</v>
       </c>
-      <c r="AI15" s="25">
+      <c r="AI15" s="26">
         <v>4096</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AJ15" s="26">
         <v>4097</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AK15" s="26">
         <v>4098</v>
       </c>
-      <c r="AL15" s="25">
+      <c r="AL15" s="26">
         <v>4099</v>
       </c>
-      <c r="AM15" s="25">
+      <c r="AM15" s="26">
         <v>4100</v>
       </c>
-      <c r="AN15" s="25">
+      <c r="AN15" s="26">
         <v>4101</v>
       </c>
-      <c r="AO15" s="25">
+      <c r="AO15" s="26">
         <v>4102</v>
       </c>
-      <c r="AP15" s="25">
+      <c r="AP15" s="26">
         <v>4103</v>
       </c>
-      <c r="AQ15" s="25">
+      <c r="AQ15" s="26">
         <v>4104</v>
       </c>
-      <c r="AR15" s="25">
+      <c r="AR15" s="26">
         <v>4105</v>
       </c>
     </row>
@@ -7973,7 +8014,7 @@
         <v>8096</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:63">
+    <row r="19" ht="14.4" spans="1:63">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -7998,170 +8039,229 @@
       <c r="H19" s="5">
         <v>0</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="25">
         <v>8097</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="25">
         <v>8098</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="25">
         <v>8099</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="25">
         <v>8100</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="25">
         <v>8101</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="25">
         <v>8102</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="25">
         <v>8103</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="25">
         <v>8104</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="25">
         <v>8105</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="25">
         <v>8106</v>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="25">
         <v>8107</v>
       </c>
-      <c r="T19" s="24">
+      <c r="T19" s="25">
         <v>8108</v>
       </c>
-      <c r="U19" s="24">
+      <c r="U19" s="25">
         <v>8109</v>
       </c>
-      <c r="V19" s="24">
+      <c r="V19" s="25">
         <v>8110</v>
       </c>
-      <c r="W19" s="24">
+      <c r="W19" s="25">
         <v>8111</v>
       </c>
-      <c r="X19" s="24">
+      <c r="X19" s="25">
         <v>8112</v>
       </c>
-      <c r="Y19" s="24">
+      <c r="Y19" s="25">
         <v>8113</v>
       </c>
-      <c r="Z19" s="24">
+      <c r="Z19" s="25">
         <v>8114</v>
       </c>
-      <c r="AA19" s="24">
+      <c r="AA19" s="25">
         <v>8115</v>
       </c>
-      <c r="AB19" s="24">
+      <c r="AB19" s="25">
         <v>8116</v>
       </c>
-      <c r="AC19" s="24">
+      <c r="AC19" s="25">
         <v>8117</v>
       </c>
-      <c r="AD19" s="24">
+      <c r="AD19" s="25">
         <v>8118</v>
       </c>
-      <c r="AE19" s="24">
+      <c r="AE19" s="25">
         <v>8119</v>
       </c>
-      <c r="AF19" s="24">
+      <c r="AF19" s="25">
         <v>8120</v>
       </c>
-      <c r="AG19" s="24">
+      <c r="AG19" s="25">
         <v>8121</v>
       </c>
-      <c r="AH19" s="24">
+      <c r="AH19" s="25">
         <v>8122</v>
       </c>
-      <c r="AI19" s="24">
+      <c r="AI19" s="25">
         <v>8123</v>
       </c>
-      <c r="AJ19" s="24">
+      <c r="AJ19" s="25">
         <v>8124</v>
       </c>
-      <c r="AK19" s="24">
+      <c r="AK19" s="25">
         <v>8125</v>
       </c>
-      <c r="AL19" s="24">
+      <c r="AL19" s="25">
         <v>8126</v>
       </c>
-      <c r="AM19" s="24">
+      <c r="AM19" s="25">
         <v>8127</v>
       </c>
-      <c r="AN19" s="24">
+      <c r="AN19" s="25">
         <v>8128</v>
       </c>
-      <c r="AO19" s="24">
+      <c r="AO19" s="25">
         <v>8129</v>
       </c>
-      <c r="AP19" s="24">
+      <c r="AP19" s="25">
         <v>8130</v>
       </c>
-      <c r="AQ19" s="24">
+      <c r="AQ19" s="25">
         <v>8131</v>
       </c>
-      <c r="AR19" s="24">
+      <c r="AR19" s="25">
         <v>8132</v>
       </c>
-      <c r="AS19" s="24">
+      <c r="AS19" s="25">
         <v>8133</v>
       </c>
-      <c r="AT19" s="24">
+      <c r="AT19" s="25">
         <v>8134</v>
       </c>
-      <c r="AU19" s="24">
+      <c r="AU19" s="25">
         <v>8135</v>
       </c>
-      <c r="AV19" s="24">
+      <c r="AV19" s="25">
         <v>8136</v>
       </c>
-      <c r="AW19" s="24">
+      <c r="AW19" s="25">
         <v>8137</v>
       </c>
-      <c r="AX19" s="24">
+      <c r="AX19" s="25">
         <v>8138</v>
       </c>
-      <c r="AY19" s="24">
+      <c r="AY19" s="25">
         <v>8139</v>
       </c>
-      <c r="AZ19" s="24">
+      <c r="AZ19" s="25">
         <v>8140</v>
       </c>
-      <c r="BA19" s="24">
+      <c r="BA19" s="25">
         <v>8141</v>
       </c>
-      <c r="BB19" s="24">
+      <c r="BB19" s="25">
         <v>8142</v>
       </c>
-      <c r="BC19" s="24">
+      <c r="BC19" s="25">
         <v>8143</v>
       </c>
-      <c r="BD19" s="24">
+      <c r="BD19" s="25">
         <v>8144</v>
       </c>
-      <c r="BE19" s="24">
+      <c r="BE19" s="25">
         <v>8145</v>
       </c>
-      <c r="BF19" s="24">
+      <c r="BF19" s="25">
         <v>8146</v>
       </c>
-      <c r="BG19" s="24">
+      <c r="BG19" s="25">
         <v>8147</v>
       </c>
-      <c r="BH19" s="24">
+      <c r="BH19" s="25">
         <v>8148</v>
       </c>
-      <c r="BI19" s="24">
+      <c r="BI19" s="25">
         <v>8149</v>
       </c>
-      <c r="BJ19" s="24">
+      <c r="BJ19" s="25">
         <v>8149</v>
       </c>
-      <c r="BK19" s="24">
+      <c r="BK19" s="25">
         <v>8150</v>
+      </c>
+    </row>
+    <row r="20" ht="14.4" spans="1:19">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23">
+        <v>170132</v>
+      </c>
+      <c r="C20" s="19">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="27">
+        <v>8800</v>
+      </c>
+      <c r="J20" s="27">
+        <v>8801</v>
+      </c>
+      <c r="K20" s="27">
+        <v>8802</v>
+      </c>
+      <c r="L20" s="27">
+        <v>8803</v>
+      </c>
+      <c r="M20" s="27">
+        <v>8804</v>
+      </c>
+      <c r="N20" s="27">
+        <v>8805</v>
+      </c>
+      <c r="O20" s="27">
+        <v>8806</v>
+      </c>
+      <c r="P20" s="27">
+        <v>8807</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>8808</v>
+      </c>
+      <c r="R20" s="27">
+        <v>8809</v>
+      </c>
+      <c r="S20" s="27">
+        <v>8810</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Table_xls/s商店商城商会表/NPCMT3买卖物品表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/NPCMT3买卖物品表.xlsx
@@ -3831,10 +3831,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -3891,7 +3891,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3899,6 +3921,50 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3912,17 +3978,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3934,66 +4010,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4009,27 +4026,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4079,13 +4079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4097,7 +4097,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4109,13 +4127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,7 +4157,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,43 +4175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4199,7 +4193,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4217,31 +4229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4254,6 +4242,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4282,17 +4282,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4345,8 +4339,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4354,17 +4363,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4384,148 +4384,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4969,11 +4969,11 @@
   <dimension ref="A1:GZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="FF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20:S20"/>
+      <selection pane="bottomRight" activeCell="FL9" sqref="FL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
@@ -6317,7 +6317,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:165">
+    <row r="7" s="2" customFormat="1" spans="1:168">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6810,6 +6810,15 @@
       </c>
       <c r="FI7" s="25">
         <v>3157</v>
+      </c>
+      <c r="FJ7" s="25">
+        <v>3158</v>
+      </c>
+      <c r="FK7" s="25">
+        <v>3159</v>
+      </c>
+      <c r="FL7" s="25">
+        <v>3160</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -6880,7 +6889,7 @@
         <v>6614</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6905,6 +6914,51 @@
       </c>
       <c r="I9" s="24">
         <v>6615</v>
+      </c>
+      <c r="J9" s="24">
+        <v>6616</v>
+      </c>
+      <c r="K9" s="24">
+        <v>6617</v>
+      </c>
+      <c r="L9" s="24">
+        <v>6618</v>
+      </c>
+      <c r="M9" s="24">
+        <v>6619</v>
+      </c>
+      <c r="N9" s="24">
+        <v>6620</v>
+      </c>
+      <c r="O9" s="24">
+        <v>6621</v>
+      </c>
+      <c r="P9" s="24">
+        <v>6622</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>6623</v>
+      </c>
+      <c r="R9" s="24">
+        <v>6624</v>
+      </c>
+      <c r="S9" s="24">
+        <v>6625</v>
+      </c>
+      <c r="T9" s="24">
+        <v>6626</v>
+      </c>
+      <c r="U9" s="24">
+        <v>6627</v>
+      </c>
+      <c r="V9" s="24">
+        <v>6628</v>
+      </c>
+      <c r="W9" s="24">
+        <v>6629</v>
+      </c>
+      <c r="X9" s="24">
+        <v>6630</v>
       </c>
     </row>
     <row r="10" spans="1:9">
